--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA4306-71F9-4730-B292-D41C3F1B4A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF4686-15E9-4020-87AA-16297E963FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="1140" windowWidth="28710" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="1140" windowWidth="28710" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
     <sheet name="personal_statistics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -79,9 +78,6 @@
     <t>Rebelové</t>
   </si>
   <si>
-    <t>2 brambory pre každého člena kmeňa</t>
-  </si>
-  <si>
     <t>SCORE</t>
   </si>
   <si>
@@ -314,6 +310,9 @@
   </si>
   <si>
     <t>1:16:44</t>
+  </si>
+  <si>
+    <t>2 brambory pre každého</t>
   </si>
 </sst>
 </file>
@@ -669,7 +668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -706,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -729,13 +730,13 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -752,19 +753,19 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -775,22 +776,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -801,16 +802,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -822,19 +823,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -846,19 +847,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -870,19 +871,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
         <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -894,25 +895,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -923,25 +924,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -952,22 +953,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -978,16 +979,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -999,19 +1000,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
         <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1023,19 +1024,19 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1047,25 +1048,25 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1076,25 +1077,25 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
         <v>71</v>
       </c>
-      <c r="H16" t="s">
-        <v>72</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1105,22 +1106,22 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
         <v>70</v>
       </c>
-      <c r="D17" t="s">
+      <c r="I17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1131,16 +1132,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -1152,19 +1153,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -1176,19 +1177,19 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -1200,25 +1201,25 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1229,16 +1230,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s">
-        <v>81</v>
-      </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -1250,25 +1251,25 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1279,22 +1280,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1305,16 +1306,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -1326,19 +1327,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I26" s="1"/>
     </row>
@@ -1350,19 +1351,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" s="1"/>
     </row>
@@ -1641,76 +1642,76 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>38</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>39</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>40</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>41</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>42</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" t="s">
-        <v>44</v>
-      </c>
       <c r="Z1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" t="s">
         <v>51</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -1721,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -1762,7 +1763,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P3">
         <v>6</v>
@@ -1803,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1847,7 +1848,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P5">
         <v>3</v>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF4686-15E9-4020-87AA-16297E963FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175D27C0-7A4F-4E11-9257-D759A2580F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="1140" windowWidth="28710" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,9 +243,6 @@
     <t>56:10</t>
   </si>
   <si>
-    <t>Slepice, kohout + 2 vejce pre každého</t>
-  </si>
-  <si>
     <t>1:24</t>
   </si>
   <si>
@@ -288,9 +285,6 @@
     <t>55:00</t>
   </si>
   <si>
-    <t>Club sandwich, chipsy, cola pre každého</t>
-  </si>
-  <si>
     <t>3:1</t>
   </si>
   <si>
@@ -313,6 +307,12 @@
   </si>
   <si>
     <t>2 brambory pre každého</t>
+  </si>
+  <si>
+    <t>Slepice, kohout + vejce</t>
+  </si>
+  <si>
+    <t>Sandwich, chipsy, cola</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -874,7 +874,7 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -910,7 +910,7 @@
         <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>57</v>
@@ -939,7 +939,7 @@
         <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>21</v>
@@ -962,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
@@ -1060,10 +1060,10 @@
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>21</v>
@@ -1083,16 +1083,16 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
         <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>71</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
@@ -1106,7 +1106,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1115,10 +1115,10 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>21</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1153,7 +1153,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1201,25 +1201,25 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1230,10 +1230,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
         <v>79</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1251,25 +1251,25 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -1289,13 +1289,13 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -1327,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
@@ -1351,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>47</v>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175D27C0-7A4F-4E11-9257-D759A2580F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215A4F65-02B8-47F2-8BFE-0BCC49D66091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1140" windowWidth="28710" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="1755" windowWidth="28545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
   <si>
     <t>DAY</t>
   </si>
@@ -270,9 +270,6 @@
     <t>Tomáš, Žaneta, Jiří, Matěj, Johanka, Adam, Martin, Lída, Barbora, Kristián</t>
   </si>
   <si>
-    <t>Bedna so zeleninou + koreniny</t>
-  </si>
-  <si>
     <t>31:20</t>
   </si>
   <si>
@@ -306,13 +303,130 @@
     <t>1:16:44</t>
   </si>
   <si>
-    <t>2 brambory pre každého</t>
-  </si>
-  <si>
     <t>Slepice, kohout + vejce</t>
   </si>
   <si>
     <t>Sandwich, chipsy, cola</t>
+  </si>
+  <si>
+    <t>2 brambory</t>
+  </si>
+  <si>
+    <t>Zelenina, koreniny</t>
+  </si>
+  <si>
+    <t>6:40</t>
+  </si>
+  <si>
+    <t>Kafe, dort, dopisy</t>
+  </si>
+  <si>
+    <t>Pepa, Andrea, Kateřina, Pítr, Karolína, Filip, Švanci, Pavlína, Kulhy</t>
+  </si>
+  <si>
+    <t>45:28</t>
+  </si>
+  <si>
+    <t>Aukce</t>
+  </si>
+  <si>
+    <t>10:55</t>
+  </si>
+  <si>
+    <t>23:50</t>
+  </si>
+  <si>
+    <t>55:38</t>
+  </si>
+  <si>
+    <t>1:17:54</t>
+  </si>
+  <si>
+    <t>8:51</t>
+  </si>
+  <si>
+    <t>Lednice plná jídla</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Tomáš, Žaneta, Jiří, Matěj, Johanka, Adam, Martin, Barbora, Kristián</t>
+  </si>
+  <si>
+    <t>46:16</t>
+  </si>
+  <si>
+    <t>Hot-Dog, cola, dopisy</t>
+  </si>
+  <si>
+    <t>1:10:30</t>
+  </si>
+  <si>
+    <t>Výhoda</t>
+  </si>
+  <si>
+    <t>Zisk odměny navíc</t>
+  </si>
+  <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>Výměna členů</t>
+  </si>
+  <si>
+    <t>28:52</t>
+  </si>
+  <si>
+    <t>Pepa, Andrea, Kateřina, Pítr, Karolína, Filip, Švanci, Pavlína, Matěj</t>
+  </si>
+  <si>
+    <t>Tomáš, Žaneta, Jiří, Johanka, Kulhy, Adam, Martin, Barbora, Kristián</t>
+  </si>
+  <si>
+    <t>42:35</t>
+  </si>
+  <si>
+    <t>1:11:54</t>
+  </si>
+  <si>
+    <t>1:19:41</t>
+  </si>
+  <si>
+    <t>1:36:54</t>
+  </si>
+  <si>
+    <t>Pepa, Andrea, Pítr, Karolína, Filip, Tomáš, Pavlína, Matěj</t>
+  </si>
+  <si>
+    <t>Švanci, Žaneta, Jiří, Johanka, Kulhy, Adam, Martin, Barbora, Kristián</t>
+  </si>
+  <si>
+    <t>15:33</t>
+  </si>
+  <si>
+    <t>Jídlo od maminky</t>
+  </si>
+  <si>
+    <t>58:47</t>
+  </si>
+  <si>
+    <t>Empanada, drink, vzkaz</t>
+  </si>
+  <si>
+    <t>6:37</t>
+  </si>
+  <si>
+    <t>19:02</t>
+  </si>
+  <si>
+    <t>50:17</t>
+  </si>
+  <si>
+    <t>50:40</t>
+  </si>
+  <si>
+    <t>1:17:43</t>
   </si>
 </sst>
 </file>
@@ -666,11 +780,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -753,7 +865,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -874,7 +986,7 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -1083,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -1207,7 +1319,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1230,10 +1342,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
         <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>79</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1251,13 +1363,13 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1266,10 +1378,10 @@
         <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1280,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
@@ -1292,10 +1404,10 @@
         <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1306,7 +1418,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -1327,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
@@ -1351,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
         <v>47</v>
@@ -1368,171 +1480,664 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>33</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>35</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>37</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>37</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>32</v>
+      </c>
+      <c r="H49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
@@ -1606,9 +2211,6 @@
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1618,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,6 +2483,120 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>8</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="Y8">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215A4F65-02B8-47F2-8BFE-0BCC49D66091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2BB3BC-27C8-4CBA-8F81-09ABEE942B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="1755" windowWidth="28545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2070" windowWidth="28545" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="175">
   <si>
     <t>DAY</t>
   </si>
@@ -427,6 +427,141 @@
   </si>
   <si>
     <t>1:17:43</t>
+  </si>
+  <si>
+    <t>8:56</t>
+  </si>
+  <si>
+    <t>Pool party</t>
+  </si>
+  <si>
+    <t>Žaneta, Johanka, Kulhy, Adam, Martin, Barbora, Kristián</t>
+  </si>
+  <si>
+    <t>49:29</t>
+  </si>
+  <si>
+    <t>2:26</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>52:54</t>
+  </si>
+  <si>
+    <t>1:12:37</t>
+  </si>
+  <si>
+    <t>Den 4</t>
+  </si>
+  <si>
+    <t>Den 10</t>
+  </si>
+  <si>
+    <t>Den 14</t>
+  </si>
+  <si>
+    <t>Den 19</t>
+  </si>
+  <si>
+    <t>Den 24</t>
+  </si>
+  <si>
+    <t>Den 31</t>
+  </si>
+  <si>
+    <t>Den 35</t>
+  </si>
+  <si>
+    <t>Den 40</t>
+  </si>
+  <si>
+    <t>7:53</t>
+  </si>
+  <si>
+    <t>Grilovačka</t>
+  </si>
+  <si>
+    <t>Pepa, Andrea, Karolína, Filip, Tomáš, Pavlína, Matěj</t>
+  </si>
+  <si>
+    <t>Pepa, Andrea, Karolína, Filip, Tomáš, Pavlína, Matěj, Žaneta</t>
+  </si>
+  <si>
+    <t>Johanka, Kulhy, Adam, Martin, Barbora, Kristián</t>
+  </si>
+  <si>
+    <t>Video, kobliha</t>
+  </si>
+  <si>
+    <t>Telefonát, palačinky</t>
+  </si>
+  <si>
+    <t>16:03</t>
+  </si>
+  <si>
+    <t>Den 45</t>
+  </si>
+  <si>
+    <t>36:44</t>
+  </si>
+  <si>
+    <t>56:08</t>
+  </si>
+  <si>
+    <t>1:13:15</t>
+  </si>
+  <si>
+    <t>Skrytá imunita</t>
+  </si>
+  <si>
+    <t>1:19:54</t>
+  </si>
+  <si>
+    <t>9:03</t>
+  </si>
+  <si>
+    <t>Pepa, Andrea, Karolína, Tomáš, Pavlína, Matěj</t>
+  </si>
+  <si>
+    <t>Čtyřkolky, pizza</t>
+  </si>
+  <si>
+    <t>46:50</t>
+  </si>
+  <si>
+    <t>Telefonát, koláč</t>
+  </si>
+  <si>
+    <t>16:24</t>
+  </si>
+  <si>
+    <t>Den 48</t>
+  </si>
+  <si>
+    <t>37:20</t>
+  </si>
+  <si>
+    <t>1:04:25</t>
+  </si>
+  <si>
+    <t>1:18:40</t>
+  </si>
+  <si>
+    <t>10:16</t>
+  </si>
+  <si>
+    <t>Mexický piknik</t>
+  </si>
+  <si>
+    <t>Pepa, Andrea, Karolína, Tomáš, Matěj</t>
+  </si>
+  <si>
+    <t>49:43</t>
+  </si>
+  <si>
+    <t>Videohovor, brownie</t>
   </si>
 </sst>
 </file>
@@ -782,7 +917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2032,160 +2169,640 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="A50">
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="A51">
+        <v>39</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
+      <c r="A53">
+        <v>40</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
+      <c r="A54">
+        <v>41</v>
+      </c>
+      <c r="B54">
+        <v>16</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s">
+        <v>38</v>
+      </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="A56">
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H56" t="s">
+        <v>150</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="A57">
+        <v>44</v>
+      </c>
+      <c r="B57">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" t="s">
+        <v>148</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="A58">
+        <v>45</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" t="s">
+        <v>148</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
+      <c r="A59">
+        <v>45</v>
+      </c>
+      <c r="B59">
+        <v>18</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="A60">
+        <v>45</v>
+      </c>
+      <c r="B60">
+        <v>18</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="s">
+        <v>158</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
+      <c r="A61">
+        <v>45</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s">
+        <v>40</v>
+      </c>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="1"/>
+      <c r="A62">
+        <v>45</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s">
+        <v>41</v>
+      </c>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="A63">
+        <v>46</v>
+      </c>
+      <c r="B63">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>161</v>
+      </c>
+      <c r="H63" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>47</v>
+      </c>
+      <c r="B64">
+        <v>19</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>164</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>161</v>
+      </c>
+      <c r="H64" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>48</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H65" t="s">
+        <v>161</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>48</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>48</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>48</v>
+      </c>
+      <c r="B68">
+        <v>20</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>49</v>
+      </c>
+      <c r="B69">
+        <v>21</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>132</v>
+      </c>
+      <c r="H69" t="s">
+        <v>172</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>50</v>
+      </c>
+      <c r="B70">
+        <v>21</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>174</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" t="s">
+        <v>172</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
@@ -2220,15 +2837,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2317,8 +2932,8 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
+      <c r="A2" t="s">
+        <v>138</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -2358,8 +2973,8 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
+      <c r="A3" t="s">
+        <v>139</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -2399,8 +3014,8 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>14</v>
+      <c r="A4" t="s">
+        <v>140</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -2443,8 +3058,8 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>19</v>
+      <c r="A5" t="s">
+        <v>141</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -2484,8 +3099,8 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>24</v>
+      <c r="A6" t="s">
+        <v>142</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -2525,8 +3140,8 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>31</v>
+      <c r="A7" t="s">
+        <v>143</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -2560,8 +3175,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>35</v>
+      <c r="A8" t="s">
+        <v>144</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -2585,16 +3200,115 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="P9">
         <v>8</v>
       </c>
-      <c r="O8">
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>4</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
         <v>6</v>
       </c>
-      <c r="Y8">
-        <v>9</v>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="Z10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2BB3BC-27C8-4CBA-8F81-09ABEE942B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1A3E8F-CA45-4CAC-B782-7EFE565B53C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2070" windowWidth="28545" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2070" windowWidth="28545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="177">
   <si>
     <t>DAY</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>Videohovor, brownie</t>
+  </si>
+  <si>
+    <t>Andrea, Kateřina, Pítr, Karolína, Filip, Švanci, Pavlína, Kulhy</t>
+  </si>
+  <si>
+    <t>Tomáš, Žaneta, Jiří, Matěj, Johanka, Adam, Martin, Barbora, Kristián, Pepa</t>
   </si>
 </sst>
 </file>
@@ -917,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,10 +1824,10 @@
         <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="H35" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>14</v>
@@ -2839,7 +2845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1A3E8F-CA45-4CAC-B782-7EFE565B53C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C13607-3272-4A3E-A89E-6ED4F55F3244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2070" windowWidth="28545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="183">
   <si>
     <t>DAY</t>
   </si>
@@ -568,6 +568,24 @@
   </si>
   <si>
     <t>Tomáš, Žaneta, Jiří, Matěj, Johanka, Adam, Martin, Barbora, Kristián, Pepa</t>
+  </si>
+  <si>
+    <t>4:42</t>
+  </si>
+  <si>
+    <t>Den 52</t>
+  </si>
+  <si>
+    <t>25:25</t>
+  </si>
+  <si>
+    <t>48:55</t>
+  </si>
+  <si>
+    <t>1:06:18</t>
+  </si>
+  <si>
+    <t>1:12:14</t>
   </si>
 </sst>
 </file>
@@ -921,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,23 +2730,122 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="A71">
+        <v>52</v>
+      </c>
+      <c r="B71">
+        <v>22</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" t="s">
+        <v>172</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="1"/>
+      <c r="A72">
+        <v>52</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="1"/>
+      <c r="A73">
+        <v>52</v>
+      </c>
+      <c r="B73">
+        <v>22</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" t="s">
+        <v>158</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="1"/>
+      <c r="A74">
+        <v>52</v>
+      </c>
+      <c r="B74">
+        <v>22</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" t="s">
+        <v>24</v>
+      </c>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="1"/>
+      <c r="A75">
+        <v>52</v>
+      </c>
+      <c r="B75">
+        <v>22</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2797,7 +2914,6 @@
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
-      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
@@ -2831,9 +2947,6 @@
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2843,9 +2956,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3317,6 +3432,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C13607-3272-4A3E-A89E-6ED4F55F3244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C52C80F-9C2A-495F-B796-DCB7A0F6FAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="3000" windowWidth="28545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="191">
   <si>
     <t>DAY</t>
   </si>
@@ -586,6 +586,30 @@
   </si>
   <si>
     <t>1:12:14</t>
+  </si>
+  <si>
+    <t>Sloučení</t>
+  </si>
+  <si>
+    <t>11:28</t>
+  </si>
+  <si>
+    <t>Rivalové</t>
+  </si>
+  <si>
+    <t>Žaneta, Johanka, Kulhy, Adam, Martin, Barbora, Kristián, Pepa, Andrea, Karolína, Tomáš</t>
+  </si>
+  <si>
+    <t>13:48</t>
+  </si>
+  <si>
+    <t>Den 56</t>
+  </si>
+  <si>
+    <t>51:02</t>
+  </si>
+  <si>
+    <t>1:20:25</t>
   </si>
 </sst>
 </file>
@@ -939,11 +963,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2778,7 +2800,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B73">
         <v>22</v>
@@ -2802,7 +2824,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B74">
         <v>22</v>
@@ -2826,7 +2848,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -2849,19 +2871,93 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="1"/>
+      <c r="A76">
+        <v>54</v>
+      </c>
+      <c r="B76">
+        <v>23</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" t="s">
+        <v>185</v>
+      </c>
+      <c r="G76" t="s">
+        <v>186</v>
+      </c>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="1"/>
+      <c r="A77">
+        <v>56</v>
+      </c>
+      <c r="B77">
+        <v>24</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>185</v>
+      </c>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="1"/>
+      <c r="A78">
+        <v>57</v>
+      </c>
+      <c r="B78">
+        <v>24</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>185</v>
+      </c>
+      <c r="G78" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="1"/>
+      <c r="A79">
+        <v>57</v>
+      </c>
+      <c r="B79">
+        <v>24</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D79" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" t="s">
+        <v>185</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -2910,7 +3006,6 @@
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
-      <c r="I91" s="1"/>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
@@ -2944,9 +3039,6 @@
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2956,10 +3048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,6 +3550,50 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="V13">
+        <v>8</v>
+      </c>
+      <c r="AA13">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C52C80F-9C2A-495F-B796-DCB7A0F6FAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95950F8F-D7B3-440A-BB6A-9C5415DAC4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="3000" windowWidth="28545" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3050,9 +3052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3397,9 +3397,6 @@
       <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -3413,16 +3410,16 @@
         <v>1</v>
       </c>
       <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="N8">
         <v>8</v>
       </c>
-      <c r="N8">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="Y8">
         <v>9</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-      <c r="Y8">
-        <v>10</v>
       </c>
       <c r="AA8">
         <v>3</v>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95950F8F-D7B3-440A-BB6A-9C5415DAC4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EBF7AE-D00A-4998-AAAF-2473720B9414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="199">
   <si>
     <t>DAY</t>
   </si>
@@ -610,6 +610,30 @@
   </si>
   <si>
     <t>1:20:25</t>
+  </si>
+  <si>
+    <t>5:07</t>
+  </si>
+  <si>
+    <t>Odměna</t>
+  </si>
+  <si>
+    <t>Den 58</t>
+  </si>
+  <si>
+    <t>Aquapark, burgre</t>
+  </si>
+  <si>
+    <t>Pepa, Tomáš, Martin, Kulhy, Andrea</t>
+  </si>
+  <si>
+    <t>26:00</t>
+  </si>
+  <si>
+    <t>55:42</t>
+  </si>
+  <si>
+    <t>1:14:09</t>
   </si>
 </sst>
 </file>
@@ -965,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,65 +2987,142 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="1"/>
+      <c r="A80">
+        <v>58</v>
+      </c>
+      <c r="B80">
+        <v>25</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
+        <v>185</v>
+      </c>
+      <c r="G80" t="s">
+        <v>34</v>
+      </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="1"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>58</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" t="s">
+        <v>192</v>
+      </c>
+      <c r="E81" t="s">
+        <v>194</v>
+      </c>
+      <c r="F81" t="s">
+        <v>185</v>
+      </c>
+      <c r="G81" t="s">
+        <v>195</v>
+      </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="1"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>60</v>
+      </c>
+      <c r="B82">
+        <v>25</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>185</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s">
+        <v>53</v>
+      </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="1"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>60</v>
+      </c>
+      <c r="B83">
+        <v>25</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" t="s">
+        <v>185</v>
+      </c>
+      <c r="G83" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" t="s">
+        <v>53</v>
+      </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
@@ -3050,9 +3151,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3591,6 +3694,47 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>8</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EBF7AE-D00A-4998-AAAF-2473720B9414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A6AA7-5CAC-4041-8EFB-12E5F9975E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="206">
   <si>
     <t>DAY</t>
   </si>
@@ -634,6 +634,27 @@
   </si>
   <si>
     <t>1:14:09</t>
+  </si>
+  <si>
+    <t>6:42</t>
+  </si>
+  <si>
+    <t>Den 61</t>
+  </si>
+  <si>
+    <t>24:15</t>
+  </si>
+  <si>
+    <t>Videohovor, jídlo</t>
+  </si>
+  <si>
+    <t>Tomáš, Kulhy, Pepa, Johanka</t>
+  </si>
+  <si>
+    <t>53:37</t>
+  </si>
+  <si>
+    <t>1:14:43</t>
   </si>
 </sst>
 </file>
@@ -989,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3080,19 +3101,96 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C84" s="1"/>
+      <c r="A84">
+        <v>61</v>
+      </c>
+      <c r="B84">
+        <v>26</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" t="s">
+        <v>185</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="1"/>
+      <c r="A85">
+        <v>61</v>
+      </c>
+      <c r="B85">
+        <v>26</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" t="s">
+        <v>192</v>
+      </c>
+      <c r="E85" t="s">
+        <v>202</v>
+      </c>
+      <c r="F85" t="s">
+        <v>185</v>
+      </c>
+      <c r="G85" t="s">
+        <v>203</v>
+      </c>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="1"/>
+      <c r="A86">
+        <v>62</v>
+      </c>
+      <c r="B86">
+        <v>26</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>185</v>
+      </c>
+      <c r="G86" t="s">
+        <v>40</v>
+      </c>
+      <c r="H86" t="s">
+        <v>51</v>
+      </c>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="1"/>
+      <c r="A87">
+        <v>62</v>
+      </c>
+      <c r="B87">
+        <v>26</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" t="s">
+        <v>185</v>
+      </c>
+      <c r="G87" t="s">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s">
+        <v>51</v>
+      </c>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3151,10 +3249,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3735,6 +3833,44 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>7</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A6AA7-5CAC-4041-8EFB-12E5F9975E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F88B327-973A-4C0D-930F-D6D1AE86E4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
     <sheet name="personal_statistics" sheetId="2" r:id="rId2"/>
+    <sheet name="sledovanost" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="216">
   <si>
     <t>DAY</t>
   </si>
@@ -655,16 +656,53 @@
   </si>
   <si>
     <t>1:14:43</t>
+  </si>
+  <si>
+    <t>VIEWERS</t>
+  </si>
+  <si>
+    <t>SHARE</t>
+  </si>
+  <si>
+    <t>Jídlo v oblacích</t>
+  </si>
+  <si>
+    <t>7:33</t>
+  </si>
+  <si>
+    <t>36:33</t>
+  </si>
+  <si>
+    <t>1:02:32</t>
+  </si>
+  <si>
+    <t>Den 63</t>
+  </si>
+  <si>
+    <t>1:15:08</t>
+  </si>
+  <si>
+    <t>Andrea, Adam, Pepa, Barbora</t>
+  </si>
+  <si>
+    <t>1:18:34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1011,7 +1049,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,22 +3232,119 @@
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C88" s="1"/>
+      <c r="A88">
+        <v>63</v>
+      </c>
+      <c r="B88">
+        <v>27</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" t="s">
+        <v>185</v>
+      </c>
+      <c r="G88" t="s">
+        <v>36</v>
+      </c>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="1"/>
+      <c r="A89">
+        <v>63</v>
+      </c>
+      <c r="B89">
+        <v>27</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" t="s">
+        <v>208</v>
+      </c>
+      <c r="F89" t="s">
+        <v>185</v>
+      </c>
+      <c r="G89" t="s">
+        <v>214</v>
+      </c>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="1"/>
+      <c r="A90">
+        <v>65</v>
+      </c>
+      <c r="B90">
+        <v>27</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" t="s">
+        <v>158</v>
+      </c>
+      <c r="F90" t="s">
+        <v>185</v>
+      </c>
+      <c r="G90" t="s">
+        <v>32</v>
+      </c>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="1"/>
+      <c r="A91">
+        <v>65</v>
+      </c>
+      <c r="B91">
+        <v>27</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>185</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
+      <c r="A92">
+        <v>65</v>
+      </c>
+      <c r="B92">
+        <v>27</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D92" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" t="s">
+        <v>185</v>
+      </c>
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C93" s="1"/>
@@ -3242,6 +3377,7 @@
       <c r="C102" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -3249,11 +3385,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3871,6 +4005,331 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD196B6-7601-47F7-B845-102943A6C8E6}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>388000</v>
+      </c>
+      <c r="C2">
+        <v>0.1749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>374000</v>
+      </c>
+      <c r="C3">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>301000</v>
+      </c>
+      <c r="C4">
+        <v>0.15210000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>266000</v>
+      </c>
+      <c r="C5">
+        <v>0.14269999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>279000</v>
+      </c>
+      <c r="C6">
+        <v>0.13849999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>286000</v>
+      </c>
+      <c r="C7">
+        <v>0.1479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>305000</v>
+      </c>
+      <c r="C8">
+        <v>0.1502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>290000</v>
+      </c>
+      <c r="C9">
+        <v>0.1421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>325000</v>
+      </c>
+      <c r="C10">
+        <v>0.17309999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>271000</v>
+      </c>
+      <c r="C11">
+        <v>0.1419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>288000</v>
+      </c>
+      <c r="C12">
+        <v>0.13150000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>280000</v>
+      </c>
+      <c r="C13">
+        <v>0.1522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>305000</v>
+      </c>
+      <c r="C14">
+        <v>0.15340000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>320000</v>
+      </c>
+      <c r="C15">
+        <v>0.15359999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>252000</v>
+      </c>
+      <c r="C16">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>250000</v>
+      </c>
+      <c r="C17">
+        <v>0.13699999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>250000</v>
+      </c>
+      <c r="C18">
+        <v>0.1245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>253000</v>
+      </c>
+      <c r="C19">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>246000</v>
+      </c>
+      <c r="C20">
+        <v>0.1119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>266000</v>
+      </c>
+      <c r="C21">
+        <v>0.12089999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>281000</v>
+      </c>
+      <c r="C22">
+        <v>0.1381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>259000</v>
+      </c>
+      <c r="C23">
+        <v>0.11840000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>255000</v>
+      </c>
+      <c r="C24">
+        <v>0.12470000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>273000</v>
+      </c>
+      <c r="C25">
+        <v>0.14300000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F88B327-973A-4C0D-930F-D6D1AE86E4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2405CEBD-9FD1-4A9B-8142-219800CA4E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
@@ -1048,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
@@ -4047,10 +4047,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD196B6-7601-47F7-B845-102943A6C8E6}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4330,6 +4330,17 @@
         <v>0.14300000000000002</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>262000</v>
+      </c>
+      <c r="C26">
+        <v>0.12870000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2405CEBD-9FD1-4A9B-8142-219800CA4E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4460BF06-3B4A-4184-AEDA-584A8D48095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="224">
   <si>
     <t>DAY</t>
   </si>
@@ -686,6 +686,30 @@
   </si>
   <si>
     <t>1:18:34</t>
+  </si>
+  <si>
+    <t>6:07</t>
+  </si>
+  <si>
+    <t>Den 66</t>
+  </si>
+  <si>
+    <t>Coco-Bongo</t>
+  </si>
+  <si>
+    <t>Martin, Adam, Johanka, Karolína</t>
+  </si>
+  <si>
+    <t>22:05</t>
+  </si>
+  <si>
+    <t>1:07:05</t>
+  </si>
+  <si>
+    <t>Krádež hlasu</t>
+  </si>
+  <si>
+    <t>1:14:42</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3347,33 +3371,130 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="1"/>
+      <c r="A93">
+        <v>66</v>
+      </c>
+      <c r="B93">
+        <v>28</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" t="s">
+        <v>185</v>
+      </c>
+      <c r="G93" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="1"/>
+      <c r="A94">
+        <v>66</v>
+      </c>
+      <c r="B94">
+        <v>28</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" t="s">
+        <v>218</v>
+      </c>
+      <c r="F94" t="s">
+        <v>185</v>
+      </c>
+      <c r="G94" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="1"/>
+      <c r="A95">
+        <v>68</v>
+      </c>
+      <c r="B95">
+        <v>28</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" t="s">
+        <v>222</v>
+      </c>
+      <c r="F95" t="s">
+        <v>185</v>
+      </c>
+      <c r="G95" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>68</v>
+      </c>
+      <c r="B96">
+        <v>28</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>185</v>
+      </c>
+      <c r="G96" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>68</v>
+      </c>
+      <c r="B97">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97" t="s">
+        <v>47</v>
+      </c>
+      <c r="F97" t="s">
+        <v>185</v>
+      </c>
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="1"/>
     </row>
   </sheetData>
@@ -3385,7 +3506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4040,6 +4161,38 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4049,7 +4202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD196B6-7601-47F7-B845-102943A6C8E6}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4460BF06-3B4A-4184-AEDA-584A8D48095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04CFEA9-96AB-4638-BD92-F3AFD6D77279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
     <sheet name="personal_statistics" sheetId="2" r:id="rId2"/>
     <sheet name="sledovanost" sheetId="3" r:id="rId3"/>
+    <sheet name="kmenovky_hlasovani" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="236">
   <si>
     <t>DAY</t>
   </si>
@@ -710,6 +711,42 @@
   </si>
   <si>
     <t>1:14:42</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Primární</t>
+  </si>
+  <si>
+    <t>Doplňkové</t>
+  </si>
+  <si>
+    <t>Andrea, Andrea</t>
+  </si>
+  <si>
+    <t>4:13</t>
+  </si>
+  <si>
+    <t>Den 69</t>
+  </si>
+  <si>
+    <t>Výlet + KFC</t>
+  </si>
+  <si>
+    <t>Johanka, Adam, Martin</t>
+  </si>
+  <si>
+    <t>32:30</t>
+  </si>
+  <si>
+    <t>51:24</t>
+  </si>
+  <si>
+    <t>1:09:48</t>
+  </si>
+  <si>
+    <t>1:15:45</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,19 +3520,116 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C98" s="1"/>
+      <c r="A98">
+        <v>69</v>
+      </c>
+      <c r="B98">
+        <v>29</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" t="s">
+        <v>185</v>
+      </c>
+      <c r="G98" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C99" s="1"/>
+      <c r="A99">
+        <v>69</v>
+      </c>
+      <c r="B99">
+        <v>29</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" t="s">
+        <v>230</v>
+      </c>
+      <c r="F99" t="s">
+        <v>185</v>
+      </c>
+      <c r="G99" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C100" s="1"/>
+      <c r="A100">
+        <v>70</v>
+      </c>
+      <c r="B100">
+        <v>29</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" t="s">
+        <v>158</v>
+      </c>
+      <c r="F100" t="s">
+        <v>185</v>
+      </c>
+      <c r="G100" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C101" s="1"/>
+      <c r="A101">
+        <v>70</v>
+      </c>
+      <c r="B101">
+        <v>29</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>185</v>
+      </c>
+      <c r="G101" t="s">
+        <v>24</v>
+      </c>
+      <c r="H101" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C102" s="1"/>
+      <c r="A102">
+        <v>70</v>
+      </c>
+      <c r="B102">
+        <v>29</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" t="s">
+        <v>185</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3506,9 +3640,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4193,6 +4329,35 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4200,11 +4365,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD196B6-7601-47F7-B845-102943A6C8E6}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4494,6 +4657,801 @@
         <v>0.12870000000000001</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>274000</v>
+      </c>
+      <c r="C27">
+        <v>0.1396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86D9FE9-7F18-4BDA-98A7-6A3578215BD5}">
+  <dimension ref="A1:AA20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04CFEA9-96AB-4638-BD92-F3AFD6D77279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E807970-DDF9-41FF-BFDC-60947D4B2A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="240">
   <si>
     <t>DAY</t>
   </si>
@@ -747,6 +747,18 @@
   </si>
   <si>
     <t>1:15:45</t>
+  </si>
+  <si>
+    <t>9:42</t>
+  </si>
+  <si>
+    <t>Den 71</t>
+  </si>
+  <si>
+    <t>47:58</t>
+  </si>
+  <si>
+    <t>1:12:00</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3631,6 +3643,90 @@
         <v>34</v>
       </c>
     </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>71</v>
+      </c>
+      <c r="B103">
+        <v>30</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" t="s">
+        <v>185</v>
+      </c>
+      <c r="G103" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>72</v>
+      </c>
+      <c r="B104">
+        <v>30</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>185</v>
+      </c>
+      <c r="G104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>72</v>
+      </c>
+      <c r="B105">
+        <v>30</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D105" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105" t="s">
+        <v>185</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+      <c r="H105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3640,10 +3736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4358,6 +4454,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4365,9 +4487,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD196B6-7601-47F7-B845-102943A6C8E6}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4666,6 +4790,17 @@
       </c>
       <c r="C27">
         <v>0.1396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>258000</v>
+      </c>
+      <c r="C28">
+        <v>0.12839999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4675,12 +4810,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86D9FE9-7F18-4BDA-98A7-6A3578215BD5}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5452,6 +5587,35 @@
         <v>30</v>
       </c>
     </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E807970-DDF9-41FF-BFDC-60947D4B2A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836B57C2-4A29-4656-8652-664A3DA4FE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="240">
   <si>
     <t>DAY</t>
   </si>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,6 +2652,9 @@
       <c r="G60" t="s">
         <v>36</v>
       </c>
+      <c r="H60" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -2978,6 +2981,9 @@
       <c r="G73" t="s">
         <v>29</v>
       </c>
+      <c r="H73" t="s">
+        <v>40</v>
+      </c>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3371,6 +3377,9 @@
       <c r="G90" t="s">
         <v>32</v>
       </c>
+      <c r="H90" t="s">
+        <v>32</v>
+      </c>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3595,6 +3604,9 @@
       </c>
       <c r="G100" t="s">
         <v>29</v>
+      </c>
+      <c r="H100" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4810,18 +4822,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86D9FE9-7F18-4BDA-98A7-6A3578215BD5}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -4835,22 +4847,22 @@
         <v>224</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>36</v>
@@ -4920,13 +4932,13 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
       <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
         <v>33</v>
       </c>
       <c r="N2" t="s">
@@ -4958,11 +4970,11 @@
       <c r="C3" t="s">
         <v>225</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
         <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
       </c>
       <c r="J3" t="s">
         <v>39</v>
@@ -5006,15 +5018,15 @@
         <v>225</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="K4" t="s">
@@ -5049,10 +5061,10 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>37</v>
       </c>
       <c r="J5" t="s">
@@ -5068,7 +5080,7 @@
         <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s">
         <v>37</v>
@@ -5093,14 +5105,14 @@
       <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
       </c>
       <c r="K6" t="s">
         <v>26</v>
@@ -5132,15 +5144,15 @@
         <v>226</v>
       </c>
       <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
       <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
         <v>52</v>
       </c>
       <c r="M7" t="s">
@@ -5166,14 +5178,14 @@
       <c r="C8" t="s">
         <v>225</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
@@ -5204,11 +5216,11 @@
       <c r="C9" t="s">
         <v>226</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
       </c>
       <c r="J9" t="s">
         <v>40</v>
@@ -5237,10 +5249,10 @@
         <v>225</v>
       </c>
       <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
         <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
       </c>
       <c r="H10" t="s">
         <v>51</v>
@@ -5271,11 +5283,11 @@
       <c r="C11" t="s">
         <v>225</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>38</v>
       </c>
       <c r="I11" t="s">
         <v>41</v>
@@ -5290,7 +5302,7 @@
         <v>41</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R11" t="s">
         <v>41</v>
@@ -5306,25 +5318,25 @@
       <c r="C12" t="s">
         <v>225</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
         <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
       </c>
+      <c r="O12" t="s">
+        <v>41</v>
+      </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5338,7 +5350,7 @@
       <c r="C13" t="s">
         <v>225</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>36</v>
       </c>
       <c r="G13" t="s">
@@ -5367,14 +5379,14 @@
       <c r="C14" t="s">
         <v>225</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
         <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
       </c>
       <c r="J14" t="s">
         <v>40</v>
@@ -5393,10 +5405,10 @@
       <c r="C15" t="s">
         <v>226</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5414,10 +5426,10 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
         <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
       </c>
       <c r="G16" t="s">
         <v>51</v>
@@ -5458,10 +5470,10 @@
         <v>24</v>
       </c>
       <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
         <v>24</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
       </c>
       <c r="G17" t="s">
         <v>53</v>
@@ -5499,10 +5511,10 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>40</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -5537,10 +5549,10 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
         <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -5569,19 +5581,19 @@
         <v>225</v>
       </c>
       <c r="D20" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="E20" t="s">
-        <v>227</v>
-      </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
         <v>36</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>30</v>
       </c>
       <c r="J20" t="s">
         <v>30</v>
@@ -5604,16 +5616,42 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
         <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
       </c>
       <c r="H21" t="s">
         <v>24</v>
       </c>
       <c r="I21" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836B57C2-4A29-4656-8652-664A3DA4FE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903792C2-83EC-4FD2-A974-82B1557161FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
@@ -1121,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
@@ -4499,10 +4499,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD196B6-7601-47F7-B845-102943A6C8E6}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4813,6 +4813,17 @@
       </c>
       <c r="C28">
         <v>0.12839999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>292000</v>
+      </c>
+      <c r="C29">
+        <v>0.1525</v>
       </c>
     </row>
   </sheetData>

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903792C2-83EC-4FD2-A974-82B1557161FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BEA2CE-6BEA-4941-9F5D-6E1BE91C373C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="event_log" sheetId="1" r:id="rId1"/>
     <sheet name="personal_statistics" sheetId="2" r:id="rId2"/>
     <sheet name="sledovanost" sheetId="3" r:id="rId3"/>
     <sheet name="kmenovky_hlasovani" sheetId="4" r:id="rId4"/>
+    <sheet name="predikce_viteze" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="249">
   <si>
     <t>DAY</t>
   </si>
@@ -759,6 +760,33 @@
   </si>
   <si>
     <t>1:12:00</t>
+  </si>
+  <si>
+    <t>FINALIST_1_PLUS</t>
+  </si>
+  <si>
+    <t>FINALIST_1_MINUS</t>
+  </si>
+  <si>
+    <t>JUDGE</t>
+  </si>
+  <si>
+    <t>FINALIST_2_PLUS</t>
+  </si>
+  <si>
+    <t>FINALIST_2_MINUS</t>
+  </si>
+  <si>
+    <t>13:47</t>
+  </si>
+  <si>
+    <t>Den 73</t>
+  </si>
+  <si>
+    <t>49:59</t>
+  </si>
+  <si>
+    <t>1:16:41</t>
   </si>
 </sst>
 </file>
@@ -1121,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3722,13 +3750,70 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C106" s="1"/>
+      <c r="A106">
+        <v>73</v>
+      </c>
+      <c r="B106">
+        <v>31</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106" t="s">
+        <v>185</v>
+      </c>
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C107" s="1"/>
+      <c r="A107">
+        <v>73</v>
+      </c>
+      <c r="B107">
+        <v>31</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>185</v>
+      </c>
+      <c r="G107" t="s">
+        <v>32</v>
+      </c>
+      <c r="H107" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C108" s="1"/>
+      <c r="A108">
+        <v>73</v>
+      </c>
+      <c r="B108">
+        <v>31</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" t="s">
+        <v>47</v>
+      </c>
+      <c r="F108" t="s">
+        <v>185</v>
+      </c>
+      <c r="G108" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C109" s="1"/>
@@ -3748,10 +3833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70530A-5E05-4C30-BC42-1EFF983AD01B}">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4485,11 +4570,28 @@
       <c r="J19">
         <v>2</v>
       </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
       <c r="V19">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4501,7 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD196B6-7601-47F7-B845-102943A6C8E6}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -4838,7 +4940,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5668,4 +5770,195 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827653C-2987-4AC8-8A2E-D75D9CC510F2}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BEA2CE-6BEA-4941-9F5D-6E1BE91C373C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4B82D-5EBF-465F-A879-ADAFC71E043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1149,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3809,10 +3809,10 @@
         <v>185</v>
       </c>
       <c r="G108" t="s">
+        <v>32</v>
+      </c>
+      <c r="H108" t="s">
         <v>29</v>
-      </c>
-      <c r="H108" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">

--- a/survivor_2023_data.xlsx
+++ b/survivor_2023_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\personal_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD4B82D-5EBF-465F-A879-ADAFC71E043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCBC8E3-8CF5-412C-A24B-96731A62593A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="249">
   <si>
     <t>DAY</t>
   </si>
@@ -4935,18 +4935,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86D9FE9-7F18-4BDA-98A7-6A3578215BD5}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -4960,16 +4960,16 @@
         <v>224</v>
       </c>
       <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>30</v>
@@ -5042,7 +5042,7 @@
       <c r="C2" t="s">
         <v>225</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
@@ -5083,7 +5083,7 @@
       <c r="C3" t="s">
         <v>225</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="I3" t="s">
@@ -5130,14 +5130,14 @@
       <c r="C4" t="s">
         <v>225</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -5174,7 +5174,7 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>37</v>
       </c>
       <c r="I5" t="s">
@@ -5215,14 +5215,14 @@
       <c r="C6" t="s">
         <v>225</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>33</v>
       </c>
       <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
         <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -5256,14 +5256,14 @@
       <c r="C7" t="s">
         <v>226</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
       <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
       </c>
       <c r="H7" t="s">
         <v>52</v>
@@ -5291,10 +5291,10 @@
       <c r="C8" t="s">
         <v>225</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>36</v>
       </c>
       <c r="I8" t="s">
@@ -5329,7 +5329,7 @@
       <c r="C9" t="s">
         <v>226</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>38</v>
       </c>
       <c r="I9" t="s">
@@ -5361,11 +5361,11 @@
       <c r="C10" t="s">
         <v>225</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
         <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
       </c>
       <c r="H10" t="s">
         <v>51</v>
@@ -5396,10 +5396,10 @@
       <c r="C11" t="s">
         <v>225</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" t="s">
         <v>41</v>
       </c>
       <c r="I11" t="s">
@@ -5431,10 +5431,10 @@
       <c r="C12" t="s">
         <v>225</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>41</v>
       </c>
       <c r="I12" t="s">
@@ -5463,10 +5463,10 @@
       <c r="C13" t="s">
         <v>225</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
       <c r="I13" t="s">
@@ -5492,10 +5492,10 @@
       <c r="C14" t="s">
         <v>225</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
         <v>40</v>
       </c>
       <c r="I14" t="s">
@@ -5518,7 +5518,7 @@
       <c r="C15" t="s">
         <v>226</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>28</v>
       </c>
       <c r="I15" t="s">
@@ -5536,16 +5536,16 @@
         <v>225</v>
       </c>
       <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -5580,16 +5580,16 @@
         <v>225</v>
       </c>
       <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>53</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
       </c>
       <c r="H17" t="s">
         <v>24</v>
@@ -5621,16 +5621,16 @@
         <v>225</v>
       </c>
       <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
         <v>40</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>40</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
       </c>
       <c r="H18" t="s">
         <v>40</v>
@@ -5659,16 +5659,16 @@
         <v>225</v>
       </c>
       <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
@@ -5694,13 +5694,13 @@
         <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
-        <v>36</v>
+      <c r="G20" t="s">
+        <v>227</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -5729,10 +5729,10 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
         <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
       </c>
       <c r="H21" t="s">
         <v>24</v>
@@ -5752,19 +5752,42 @@
         <v>225</v>
       </c>
       <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
         <v>24</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>30</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
       </c>
       <c r="H22" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
